--- a/weekly availability.xlsx
+++ b/weekly availability.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -69,11 +69,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,16 +112,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -193,6 +206,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -227,6 +241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -402,17 +417,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AH36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -440,7 +455,7 @@
     <col min="34" max="34" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>11</v>
       </c>
@@ -448,7 +463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C2" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -546,7 +561,7 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -554,17 +569,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -587,7 +602,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -595,22 +610,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -618,17 +645,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:34">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -636,7 +671,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -644,22 +679,34 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:34">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -667,17 +714,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:34">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>0</v>
       </c>
@@ -685,7 +740,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -693,17 +748,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:34">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -712,7 +771,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -720,17 +779,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -753,7 +812,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -851,18 +910,18 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="33" spans="5:7">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="5:7">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="36" spans="5:7">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>15</v>
       </c>
@@ -874,24 +933,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/weekly availability.xlsx
+++ b/weekly availability.xlsx
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +81,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -108,15 +116,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,22 +480,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:J25"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="4.7109375" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="4.5703125" customWidth="1"/>
     <col min="7" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="5.85546875" customWidth="1"/>
     <col min="13" max="13" width="4.5703125" customWidth="1"/>
     <col min="14" max="16" width="4.7109375" customWidth="1"/>
@@ -451,7 +510,7 @@
     <col min="30" max="30" width="6" customWidth="1"/>
     <col min="31" max="31" width="5.7109375" customWidth="1"/>
     <col min="32" max="32" width="5.85546875" customWidth="1"/>
-    <col min="33" max="33" width="5.42578125" customWidth="1"/>
+    <col min="33" max="33" width="6" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -463,466 +522,1356 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C2" s="1">
+    <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <v>0.375</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="8">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="8">
         <v>0.4375</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="8">
         <v>0.5</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="8">
         <v>6.25E-2</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="8">
         <v>0.10416666666666667</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="8">
         <v>0.125</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="8">
         <v>0.14583333333333334</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="8">
         <v>0.1875</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="8">
         <v>0.20833333333333334</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="8">
         <v>0.22916666666666666</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="8">
         <v>0.25</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="8">
         <v>0.27083333333333331</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="8">
         <v>0.29166666666666669</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="8">
         <v>0.3125</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="8">
         <v>0.35416666666666669</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="8">
         <v>0.375</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="8">
         <v>0.39583333333333331</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="8">
         <v>0.4375</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2" s="8">
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="AH3" s="9"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="AH4" s="10"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="AH5" s="10"/>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="11"/>
+    </row>
+    <row r="7" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M7" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N7" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O7" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="R7" s="8">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0.1875</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="X7" s="8">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>0.3125</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="10"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="AH9" s="10"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="AH10" s="10"/>
+    </row>
+    <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="11"/>
+    </row>
+    <row r="12" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M12" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N12" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O12" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0.1875</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Z12" s="8">
+        <v>0.3125</v>
+      </c>
+      <c r="AA12" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB12" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AC12" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="AH13" s="10"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="10"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="AH15" s="10"/>
+    </row>
+    <row r="16" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="11"/>
+    </row>
+    <row r="17" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M17" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N17" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O17" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="S17" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0.1875</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="W17" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>0.3125</v>
+      </c>
+      <c r="AA17" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="AD17" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF17" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AH17" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="AH18" s="10"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="AH19" s="10"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="AH20" s="10"/>
+    </row>
+    <row r="21" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="11"/>
+    </row>
+    <row r="22" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M22" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N22" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O22" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0.1875</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="V22" s="8">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="W22" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="X22" s="8">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>0.3125</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="AD22" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF22" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="AH23" s="10"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="AH24" s="10"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="AH25" s="10"/>
+    </row>
+    <row r="26" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="11"/>
+    </row>
+    <row r="27" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="L27" s="8">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M27" s="8">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N27" s="8">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O27" s="8">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P27" s="8">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="R27" s="8">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="S27" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T27" s="8">
+        <v>0.1875</v>
+      </c>
+      <c r="U27" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="V27" s="8">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="W27" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="X27" s="8">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>0.3125</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB27" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="AD27" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AE27" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF27" s="8">
+        <v>0.4375</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AH27" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="AH28" s="10"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="AH29" s="10"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
+      <c r="AH30" s="10"/>
+    </row>
+    <row r="31" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="11"/>
+    </row>
+    <row r="32" spans="1:34" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="8">
         <v>0.35416666666666669</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="8">
         <v>0.375</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F32" s="8">
         <v>0.39583333333333331</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G32" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H32" s="8">
         <v>0.4375</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I32" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J32" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K32" s="8">
         <v>0.5</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L32" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M32" s="8">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N32" s="8">
         <v>6.25E-2</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O32" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P32" s="8">
         <v>0.10416666666666667</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q32" s="8">
         <v>0.125</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R32" s="8">
         <v>0.14583333333333334</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S32" s="8">
         <v>0.16666666666666666</v>
       </c>
-      <c r="T31" s="1">
+      <c r="T32" s="8">
         <v>0.1875</v>
       </c>
-      <c r="U31" s="1">
+      <c r="U32" s="8">
         <v>0.20833333333333334</v>
       </c>
-      <c r="V31" s="1">
+      <c r="V32" s="8">
         <v>0.22916666666666666</v>
       </c>
-      <c r="W31" s="1">
+      <c r="W32" s="8">
         <v>0.25</v>
       </c>
-      <c r="X31" s="1">
+      <c r="X32" s="8">
         <v>0.27083333333333331</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Y32" s="8">
         <v>0.29166666666666669</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="Z32" s="8">
         <v>0.3125</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AA32" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AB32" s="8">
         <v>0.35416666666666669</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AC32" s="8">
         <v>0.375</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AD32" s="8">
         <v>0.39583333333333331</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AE32" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AF32" s="8">
         <v>0.4375</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AG32" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AH32" s="8">
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" t="s">
+    <row r="33" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH33" s="10"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH34" s="10"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="10"/>
+    </row>
+    <row r="36" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="11"/>
+    </row>
+    <row r="37" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="M37" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N37" s="1">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O37" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" t="s">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36" t="s">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
         <v>15</v>
       </c>
     </row>

--- a/weekly availability.xlsx
+++ b/weekly availability.xlsx
@@ -94,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -173,9 +179,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +492,7 @@
   <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,24 +632,24 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
       <c r="AH3" s="9"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -806,7 +815,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -822,20 +831,20 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="5"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -1008,22 +1017,31 @@
       </c>
     </row>
     <row r="13" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
       <c r="AH13" s="10"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
@@ -1185,15 +1203,26 @@
       </c>
     </row>
     <row r="18" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
       <c r="AH18" s="10"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
@@ -1359,22 +1388,33 @@
       </c>
     </row>
     <row r="23" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
       <c r="AH23" s="10"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
@@ -1536,16 +1576,20 @@
       </c>
     </row>
     <row r="28" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="14"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
       <c r="AH28" s="10"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
@@ -1703,12 +1747,24 @@
       </c>
     </row>
     <row r="33" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
       <c r="AH33" s="10"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
@@ -1869,6 +1925,7 @@
         <v>14</v>
       </c>
       <c r="G40" s="2"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E42" t="s">

--- a/weekly availability.xlsx
+++ b/weekly availability.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +656,15 @@
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="AH4" s="10"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -858,6 +867,17 @@
       <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
       <c r="AH9" s="10"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -1048,6 +1068,12 @@
       <c r="B14" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
       <c r="AH14" s="10"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
@@ -1229,6 +1255,11 @@
       <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
       <c r="AH19" s="10"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
@@ -1421,6 +1452,12 @@
       <c r="B24" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="AH24" s="10"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
@@ -1596,6 +1633,12 @@
       <c r="B29" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="AH29" s="10"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
@@ -1771,6 +1814,18 @@
       <c r="B34" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
       <c r="AH34" s="10"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
